--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value828.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value828.xlsx
@@ -351,7 +351,7 @@
         <v>0.858791485271982</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>3.096478777334344</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value828.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value828.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.858791485271982</v>
+        <v>1.445722818374634</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>3.542949914932251</v>
       </c>
       <c r="C1">
-        <v>3.096478777334344</v>
+        <v>2.125890970230103</v>
       </c>
       <c r="D1">
-        <v>1.794781975788366</v>
+        <v>1.124770760536194</v>
       </c>
       <c r="E1">
-        <v>1.395806792688457</v>
+        <v>0.7687835693359375</v>
       </c>
     </row>
   </sheetData>
